--- a/hbase 配置.xlsx
+++ b/hbase 配置.xlsx
@@ -4,22 +4,37 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="746" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="WAL" sheetId="1" r:id="rId1"/>
     <sheet name="port&amp;dir" sheetId="2" r:id="rId2"/>
     <sheet name="switch" sheetId="3" r:id="rId3"/>
     <sheet name="通信和队列" sheetId="4" r:id="rId4"/>
-    <sheet name="jvm&amp;存储管理" sheetId="5" r:id="rId5"/>
+    <sheet name="jvm" sheetId="5" r:id="rId5"/>
     <sheet name="region操作" sheetId="6" r:id="rId6"/>
+    <sheet name="tuning" sheetId="7" r:id="rId7"/>
+    <sheet name="client" sheetId="8" r:id="rId8"/>
+    <sheet name="最少的" sheetId="9" r:id="rId9"/>
+    <sheet name="hmaster" sheetId="10" r:id="rId10"/>
+    <sheet name="zk" sheetId="11" r:id="rId11"/>
+    <sheet name="安全" sheetId="12" r:id="rId12"/>
+    <sheet name="是" sheetId="13" r:id="rId13"/>
+    <sheet name="coprocessor" sheetId="14" r:id="rId14"/>
+    <sheet name="网络" sheetId="15" r:id="rId15"/>
+    <sheet name="rest&amp;thrift" sheetId="16" r:id="rId16"/>
+    <sheet name="集群管理" sheetId="17" r:id="rId17"/>
+    <sheet name="bulkload" sheetId="18" r:id="rId18"/>
+    <sheet name="s" sheetId="19" r:id="rId19"/>
+    <sheet name="内存" sheetId="20" r:id="rId20"/>
+    <sheet name="磁盘" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
   <si>
     <t>hbase.master.logcleaner.plugins</t>
   </si>
@@ -247,6 +262,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
       <t>hbase.regionserver.regionSplitLimit</t>
     </r>
     <r>
@@ -262,16 +283,584 @@
   <si>
     <t>rs上的region数限制，不是一个强硬的限制，是一个指导值</t>
   </si>
+  <si>
+    <t>hbase.hregion.majorcompaction</t>
+  </si>
+  <si>
+    <t>604800000=7天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设置为7天，一个region中的compactions发生的时间间隔
+我们应该在非峰值的时候去促使major compaction的发生
+</t>
+  </si>
+  <si>
+    <t>hbase.hregion.majorcompaction.jitter</t>
+  </si>
+  <si>
+    <t>一个乘以hbase.hregion.majorcompaction的乘数，与其
+共同决定compaction时间间隔</t>
+  </si>
+  <si>
+    <t>hbase.hstore.compactionThreshold</t>
+  </si>
+  <si>
+    <t>任何一个Store中的StoreFile数超过这个值，compaction
+开始</t>
+  </si>
+  <si>
+    <t>与hbase.hstore.blockingStoreFiles有什么
+不同</t>
+  </si>
+  <si>
+    <t>hbase.hstore.flusher.count</t>
+  </si>
+  <si>
+    <t>flush的线程数，
+更少的线程数会导致flush进入队列等待
+更多的线程数，会增加hdfs的压力，同时也会导致更多的compaction</t>
+  </si>
+  <si>
+    <t>hbase.hstore.blockingStoreFiles</t>
+  </si>
+  <si>
+    <t>一个store中存在的storefiles如果超过了这个数，阻塞更新，直到compaction完成
+或者到达hbase.hstore.blockingWaitTime等待时间</t>
+  </si>
+  <si>
+    <t>与hbase.hstore.compactionThreshold的区别
+默认值为啥查这么多</t>
+  </si>
+  <si>
+    <t>hbase.hstore.blockingWaitTime</t>
+  </si>
+  <si>
+    <t>hbase.hstore.compaction.min</t>
+  </si>
+  <si>
+    <t>compaction发生的前提条件，必须有3个有资格compaction
+的storefile。调这个参数应该本着尽量避免小size的storefile去compact。默认值已经适合多数情况，老版本的hbase.hstore.compaction.min 是hbase.hstore.compactionThreshold</t>
+  </si>
+  <si>
+    <t>hbase.hstore.compaction.max</t>
+  </si>
+  <si>
+    <t>触发一个minor compaction的storeFile的最大值，不管
+这些storeFile是不是有符合compaciton的资格，这些StoreFile都会参加compaction，看下代码，考察一个store中的storeFile哪些参与了compaction，都参加？</t>
+  </si>
+  <si>
+    <t>hbase.hstore.compaction.min.size</t>
+  </si>
+  <si>
+    <t>134217728=128M</t>
+  </si>
+  <si>
+    <t>用于compaction资格判定，小于这个size的storeFile都
+是有资格参加minor compaction的。size大于等于这个值
+的HFile使用hbase.hstore.compaction.ratio 来判定是
+否有资格。写压力大的场景下，这个值应该适当被减小。</t>
+  </si>
+  <si>
+    <t>hbase.hstore.compaction.max.size</t>
+  </si>
+  <si>
+    <t>9223372036854770000=LONG.MAX_VALUE</t>
+  </si>
+  <si>
+    <t>超过这个值的storeFile将不会参与compaction，这个值可
+以设置的很大，以保证大StoreFiles不会频发</t>
+  </si>
+  <si>
+    <t>hbase.hstore.compaction.ratio</t>
+  </si>
+  <si>
+    <t>1.2F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这个值用来判断大于hbase.hstore.compaction.min.size的StoreFile是否有资格compaction。一个大值（10）会生成一个巨大的StoreFile，0.25会生成4个StroeFile
+</t>
+  </si>
+  <si>
+    <t>没明白第一句，怎么判断大于min的StoreFile是
+否compaction</t>
+  </si>
+  <si>
+    <t>hbase.hstore.compaction.ratio.offpeak</t>
+  </si>
+  <si>
+    <t>5.0f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">和hbase.hstore.compaction.ratio一样，只不过这个配
+置是在hbase off-peak的时候起作用的
+</t>
+  </si>
+  <si>
+    <t>与上面的同样的问题</t>
+  </si>
+  <si>
+    <t>hbase.hstore.time.to.purge.deletes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">清除标记为delete的value
+0表示 清除所有delete标记
+不然就是清除当前时间减去这个配置值得到时间戳之前的value
+</t>
+  </si>
+  <si>
+    <t>hbase.offpeak.start.hour</t>
+  </si>
+  <si>
+    <t>指定off-peak的开始时间0-23</t>
+  </si>
+  <si>
+    <t>居然要手动指定</t>
+  </si>
+  <si>
+    <t>hbase.offpeak.end.hour</t>
+  </si>
+  <si>
+    <t>off-peak关闭时间 -1表示不启用off-peak功能</t>
+  </si>
+  <si>
+    <t>hbase.regionserver.thread.compaction.throttle</t>
+  </si>
+  <si>
+    <t>2*hbase.hstore.compaction.max*hbase.hregion.memstore.flush.size</t>
+  </si>
+  <si>
+    <t>hbase有两种compaction线程池，分别服务于大size的
+compaction和小的compaction。这个是用来区分的阀门</t>
+  </si>
+  <si>
+    <t>hbase.regionserver.majorcompaction.pagecache.drop</t>
+  </si>
+  <si>
+    <t>在major compaction的时候是否读写读写system 页缓存
+true可以防止污染page cache</t>
+  </si>
+  <si>
+    <t>hbase.regionserver.minorcompaction.pagecache.drop</t>
+  </si>
+  <si>
+    <t>在minor compaction的时候是否读写读写system 页缓存
+true可以防止污染page cache</t>
+  </si>
+  <si>
+    <t>hbase.hstore.compaction.kv.max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flush或者compaction时，一个batch 可以 read的最大kv对
+10也是太少了吧
+</t>
+  </si>
+  <si>
+    <t>hbase.hregion.memstore.mslab.enabled</t>
+  </si>
+  <si>
+    <t>对齐memstore占用的内存，防止碎片的产生，降低stop-the-world发生的概率。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hbase.regionserver.handler.count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>响应外部用户访问数据表请求的线程数，当用户操作大多数是开销较大写入和大缓存的扫描时，请求的payload在MB时，线程数应该被设置的小点。当单次请求开销较小的时候，线程数应该设置的比较高。设置为可以预计的客户端的数量是推荐的，因为太高的线程数，可能会导致rs频繁的gc，因为gc无论怎么努力，都不能完全清除请求的loadpay</t>
+  </si>
+  <si>
+    <t>堆内存的0.4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hfile.block.cache.size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>HFile和StoreFile所占的内存比例，默认40%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hbase.regionserver.checksum.verify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>使用hbase自己确认hfile的校验和，如果为false就是hbase依赖于hdfs确认的校验和</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbase.hregion.max.filesize </t>
+  </si>
+  <si>
+    <t>10G</t>
+  </si>
+  <si>
+    <t>region上的最大的hstoreFile的大小
+当任何一个cf的HStorefiles超过这个值时 分裂
+10737418240 = 10G</t>
+  </si>
+  <si>
+    <t>block updates 持续的最大时间，如果block update过程时间超过这个值，就算还有compaction没有完成，这个过程也会停下。怎么处理？
+90000 = 1分半</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbase.master.port </t>
+  </si>
+  <si>
+    <t>hmaster的通信端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbase.master.info.port </t>
+  </si>
+  <si>
+    <t>hbase master web ui使用的端口
+如果不想运行web实例
+设置成-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbase.master.catalog.timeout </t>
+  </si>
+  <si>
+    <t>600000=1个小时</t>
+  </si>
+  <si>
+    <t>Catalog Janitor 从master到META表的超时时间
+什么操作？日志看下</t>
+  </si>
+  <si>
+    <r>
+      <t>hbase.master.info.bindAddress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>hbase master的web ui的地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbase.master.loadbalancer.class </t>
+  </si>
+  <si>
+    <r>
+      <t>org.apache.hadoop.hbase.master.balancer.StochasticLoadBalancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>loadbalancer的实现</t>
+  </si>
+  <si>
+    <r>
+      <t>hbase.status.publisher.class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>org.apache.hadoop.hbase.master.ClusterStatusPublisher$MulticastPublisher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>hbase状态发布器</t>
+  </si>
+  <si>
+    <r>
+      <t>hbase.master.logcleaner.ttl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WAL在.oldlogdir目录中停留的最大时间
+10分钟？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbase.master.infoserver.redirect </t>
+  </si>
+  <si>
+    <r>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Master是否监听Master web ui端口 并且重定向请求到 Master 和RS共享的web ui 
+共享的web ui是啥   为啥要这么干</t>
+  </si>
+  <si>
+    <r>
+      <t>hbase.master.hfilecleaner.plugins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>org.apache.hadoop.hbase.master.cleaner.TimeToLiveHFileCleaner</t>
+  </si>
+  <si>
+    <t>hfile清除器逗号分隔的，按序调
+用的列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbase.snapshot.master.timeout.millis </t>
+  </si>
+  <si>
+    <t>master 快照程序超时时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbase.master.normalizer.class </t>
+  </si>
+  <si>
+    <t>org.apache.hadoop.hbase.master.normalizer.SimpleRegionNormalizer</t>
+  </si>
+  <si>
+    <t>用于normalizer region的类</t>
+  </si>
+  <si>
+    <t>LogsCleaner服务调用的一些
+BaselogCleanerDelegate</t>
+  </si>
+  <si>
+    <r>
+      <t>hbase.zookeeper.peerport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>zk通讯端口</t>
+  </si>
+  <si>
+    <t>hbase.zookeeper.property.maxClientCnxns</t>
+  </si>
+  <si>
+    <t>1.hbase启动时候连接zkserver的超时时间
+2.hbase用zkclient连接所有的超时间
+默认是3分钟，一般改成60000
+最好不要超时时间小于jvm的gc时间（哪阶段？）时rs会掉线
+需要继续深看</t>
+  </si>
+  <si>
+    <t>zookeeper.znode.parent</t>
+  </si>
+  <si>
+    <t>/hbase</t>
+  </si>
+  <si>
+    <t>hbase在zk中的根目录</t>
+  </si>
+  <si>
+    <t>zookeeper.znode.acl.parent</t>
+  </si>
+  <si>
+    <t>acl</t>
+  </si>
+  <si>
+    <t>zk访问控制列表的根节点
+在zk里木有找到？</t>
+  </si>
+  <si>
+    <t>hbase.zookeeper.dns.interface</t>
+  </si>
+  <si>
+    <t>zk报告ip地址的网络接口</t>
+  </si>
+  <si>
+    <t>hbase.zookeeper.dns.nameserver</t>
+  </si>
+  <si>
+    <t>hbase.zookeeper.leaderport</t>
+  </si>
+  <si>
+    <t>zk选举端口</t>
+  </si>
+  <si>
+    <t>hbase.zookeeper.property.initLimit</t>
+  </si>
+  <si>
+    <t>The number of ticks that the initial synchronization phase can take.
+看zoo。cfg中这个值 有啥用</t>
+  </si>
+  <si>
+    <t>hbase.zookeeper.property.syncLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在发送请求和获得承认之间可以通过的ticks数</t>
+  </si>
+  <si>
+    <t>hbase.zookeeper.property.dataDir</t>
+  </si>
+  <si>
+    <t>${hbase.tmp.dir}/zookeeper</t>
+  </si>
+  <si>
+    <t>快照存储目录</t>
+  </si>
+  <si>
+    <t>hbase.zookeeper.property.clientPort</t>
+  </si>
+  <si>
+    <t>zk客户端连接端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbase.config.read.zookeeper.config </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbase 是否读取zoo.cfg  不建议读   已经过时
+那hbase怎么读zk配置，不需要读么？
+使用zkclient？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zookeeper.znode.rootserver </t>
+  </si>
+  <si>
+    <r>
+      <t>root-region-server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="microsoft yahei"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>去zk里面看了  木有这个目录。
+这个目录被master写  被client和rs读</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbase.zookeeper.useMulti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">true </t>
+  </si>
+  <si>
+    <t>是否使用ZooKeeper’s multi-update functionality
+能更快的完成zookeeper操作，zk3.4+以上支持</t>
+  </si>
+  <si>
+    <t>replication</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -282,15 +871,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.25"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="microsoft yahei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11.95"/>
       <color theme="1"/>
       <name val="DejaVu Sans Mono"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.25"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="microsoft yahei"/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -300,16 +895,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -317,16 +926,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,8 +948,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,21 +973,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,7 +1010,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,37 +1032,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -460,7 +1048,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +1072,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,145 +1210,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,12 +1229,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,17 +1283,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,54 +1355,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -792,157 +1365,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,28 +1540,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -991,7 +1603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1351,7 +1963,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="2" max="2" width="67.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.125" style="7" customWidth="1"/>
     <col min="3" max="3" width="52.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1359,10 +1971,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1370,10 +1982,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="24">
         <v>600000</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1381,29 +1993,29 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="18">
         <v>600000</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="18">
         <v>3600000</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -1411,10 +2023,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
@@ -1422,10 +2034,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
@@ -1433,19 +2045,491 @@
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="18">
         <v>3600000</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="36.625" customWidth="1"/>
+    <col min="2" max="2" width="81.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:3">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="1">
+        <v>16010</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:3">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:3">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="6">
+        <v>600000</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:3">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:3">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:3">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="6">
+        <v>300000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:3">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="49.625" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2888</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" ht="94.5" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4">
+        <v>90000</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3888</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:3">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="1:3">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:3">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:3">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1467,96 +2551,128 @@
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" ht="46" customHeight="1" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="18">
         <v>16000</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="18">
         <v>16010</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="17" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1577,14 +2693,14 @@
     <col min="3" max="3" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="68" customHeight="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="19" customFormat="1" ht="68" customHeight="1" spans="1:3">
+      <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="13" t="b">
+      <c r="B1" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1600,33 +2716,33 @@
   <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="43.25" customWidth="1"/>
-    <col min="2" max="2" width="40.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="18">
         <v>30</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>0.1</v>
       </c>
       <c r="C2" t="s">
@@ -1634,35 +2750,35 @@
       </c>
     </row>
     <row r="3" ht="54" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>3000</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1670,7 +2786,7 @@
       <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C6" t="s">
@@ -1678,24 +2794,24 @@
       </c>
     </row>
     <row r="7" ht="27" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1710,37 +2826,37 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="58.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.375" style="7" customWidth="1"/>
     <col min="3" max="3" width="66.75" customWidth="1"/>
     <col min="4" max="4" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" ht="58" customHeight="1" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1753,24 +2869,25 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="51.5" customWidth="1"/>
-    <col min="2" max="2" width="70.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.75" style="7" customWidth="1"/>
     <col min="3" max="3" width="49.875" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C1" t="s">
@@ -1778,18 +2895,398 @@
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>1000</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:3">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:4">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:3">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:4">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="7">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="7">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="1:4">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:3">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="1:3">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:3">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:3">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" ht="54" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="7">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="39.75" customWidth="1"/>
+    <col min="2" max="2" width="31.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="1:3">
+      <c r="A2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="7">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" ht="58" customHeight="1" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:3">
+      <c r="A6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="7">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:3">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:3">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="14">
+        <v>90000</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="32.125" customWidth="1"/>
+    <col min="2" max="2" width="51.375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>